--- a/REVER_DailyTracker_20200622.xlsx
+++ b/REVER_DailyTracker_20200622.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -76,19 +76,21 @@
   <si>
     <t>Regression testing on Hayaai website</t>
   </si>
+  <si>
+    <t>Module - Best Denki - Billing return processing, web repair information search, Module - Homac - Subscription import</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,155 +124,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,7 +151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,188 +173,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -537,262 +223,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -818,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -851,59 +295,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1165,27 +565,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1209,7 +609,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="24" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -1227,23 +627,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1274,29 +674,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1364,7 +762,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1385,21 +783,21 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="21" spans="3:3">
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="21" spans="2:3">
       <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1430,29 +828,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1496,23 +892,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1543,29 +939,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1591,7 +985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1602,7 +996,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1613,23 +1007,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1660,29 +1054,150 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="47.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44004</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1726,23 +1241,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1773,29 +1288,127 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1839,23 +1452,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1886,131 +1499,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2054,23 +1563,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2101,29 +1610,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2167,23 +1674,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2214,29 +1721,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2280,23 +1785,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2327,120 +1832,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200622.xlsx
+++ b/REVER_DailyTracker_20200622.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9DE14D-05B9-4871-B759-9892A80765A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -81,12 +87,24 @@
   </si>
   <si>
     <t>Sonia</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Module - Best Denki - web data creation(best_web_data_bat.exe,best_web_data_sub1.exe,best_web_data_sub2.exe,best_web_data_sub3.exe,best_web_data_sub4.exe)</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -114,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,6 +144,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,11 +244,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -274,9 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -294,6 +309,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -301,13 +326,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -609,14 +637,14 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
@@ -679,7 +707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -833,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -944,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -985,26 +1013,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="78.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="30">
+        <v>44004</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="30">
+        <v>44004</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1"/>
@@ -1059,10 +1103,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1154,7 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="6">
@@ -1182,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1293,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1393,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1504,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1726,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REVER_DailyTracker_20200622.xlsx
+++ b/REVER_DailyTracker_20200622.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9DE14D-05B9-4871-B759-9892A80765A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2E197-6CCF-404E-96CA-BAFE1780F8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t>DEbitNoteRegister</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
   </si>
 </sst>
 </file>
@@ -605,15 +611,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -637,7 +643,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
@@ -714,15 +720,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -868,15 +874,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -975,19 +981,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1013,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="78.75">
+    <row r="2" spans="1:7" ht="78">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1034,7 +1040,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1110,15 +1116,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1144,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25">
+    <row r="2" spans="1:7" ht="46.8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1229,19 +1235,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1270,9 +1276,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
@@ -1344,15 +1356,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1444,15 +1456,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1555,15 +1567,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1666,15 +1678,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1777,15 +1789,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
